--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grammar!$D$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grammar!$E$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Subjects</t>
   </si>
@@ -102,9 +102,6 @@
             }</t>
   </si>
   <si>
-    <t>Tạo chương trình giao diện send text, khi gõ Enter, text chuyển từ ô gõ dưới đưa lên ô text trên</t>
-  </si>
-  <si>
     <t>Tạo chương trình Winform như trong thư mục</t>
   </si>
   <si>
@@ -116,6 +113,25 @@
   </si>
   <si>
     <t xml:space="preserve">Sử dụng phần mềm InnoSetup </t>
+  </si>
+  <si>
+    <t>Tạo chương trình giao diện send text, khi gõ Enter
+, text chuyển từ ô gõ dưới đưa lên ô text trên</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Làm quen cách sử dụng 
+hàm của đối tượng xâu hay còn gọi chuỗi hay text</t>
+  </si>
+  <si>
+    <t>Đã có chương trình đổi chữ hoa sang chữ thường
+, ví chương trình đổi chữ thường thành chữ hoa</t>
+  </si>
+  <si>
+    <t>Tài liệu hướng dẫn các hàm xem trong mục
+Document tại chương 10 trang 75, project minh họa để trong Exercises\ToLower</t>
   </si>
 </sst>
 </file>
@@ -489,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,13 +516,14 @@
     <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="6" width="15.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,52 +533,58 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6">
-        <v>41330</v>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>41330</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6">
+        <v>41330</v>
+      </c>
+      <c r="G2" s="6">
+        <v>41330</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -571,23 +594,23 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>41330</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>41333</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -595,126 +618,189 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6">
+        <v>41331</v>
+      </c>
+      <c r="F4" s="6">
+        <v>41332</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6">
-        <v>41331</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41332</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6">
+        <v>41331</v>
+      </c>
+      <c r="F5" s="6">
+        <v>41334</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
+      <c r="B23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:H23"/>
+  <autoFilter ref="E1:I23"/>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>
@@ -728,13 +814,13 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -102,9 +102,6 @@
             }</t>
   </si>
   <si>
-    <t>Tạo chương trình Winform như trong thư mục</t>
-  </si>
-  <si>
     <t>Sử dụng hàm MessageBox.Show(chuỗi cần hiển thị)
 để hiển thị kết quả</t>
   </si>
@@ -126,12 +123,15 @@
 hàm của đối tượng xâu hay còn gọi chuỗi hay text</t>
   </si>
   <si>
-    <t>Đã có chương trình đổi chữ hoa sang chữ thường
-, ví chương trình đổi chữ thường thành chữ hoa</t>
-  </si>
-  <si>
     <t>Tài liệu hướng dẫn các hàm xem trong mục
 Document tại chương 10 trang 75, project minh họa để trong Exercises\ToLower</t>
+  </si>
+  <si>
+    <t>Đã có chương trình đổi chữ hoa sang chữ thường
+, tạo chương trình đổi chữ thường thành chữ hoa</t>
+  </si>
+  <si>
+    <t>Tạo chương trình Winform như trong thư mục Exercises</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -563,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6">
         <v>41330</v>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6">
         <v>41331</v>
@@ -627,13 +627,13 @@
         <v>41332</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -641,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6">
         <v>41331</v>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>41333</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Grammar" sheetId="1" r:id="rId1"/>
-    <sheet name="Listenning" sheetId="3" r:id="rId2"/>
-    <sheet name="Reference" sheetId="2" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grammar!$E$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Subjects</t>
   </si>
@@ -75,19 +74,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>That is love</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Health and Environmental Concerns as Ugandans Start to Eat Primates -VOA</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Some Websites Judge You by the Kind of Computer You Use-VOA</t>
   </si>
   <si>
     <t>Not Defined</t>
@@ -180,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,7 +190,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -507,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -562,8 +551,8 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="6">
         <v>41330</v>
@@ -580,8 +569,8 @@
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -589,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
         <v>41330</v>
@@ -607,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -615,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6">
         <v>41331</v>
@@ -632,8 +621,8 @@
       <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>26</v>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -641,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="6">
         <v>41331</v>
@@ -661,8 +650,8 @@
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>32</v>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -830,272 +819,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" customWidth="1"/>
-    <col min="4" max="6" width="15.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6">
-        <v>41310</v>
-      </c>
-      <c r="E2" s="6">
-        <v>41312</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6">
-        <v>41312</v>
-      </c>
-      <c r="E3" s="6">
-        <v>41316</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6">
-        <v>41316</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41320</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>41309</formula1>
-      <formula2>41639</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Reference!$A$2:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Reference!$B$2:$B$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Subjects</t>
   </si>
@@ -122,6 +122,19 @@
   </si>
   <si>
     <t>Tạo chương trình Winform như trong thư mục Exercises</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Kết nối cơ sở dữ liệu từ C#.Net sang sql sever</t>
+  </si>
+  <si>
+    <t>Làm quen với ADO.Net</t>
+  </si>
+  <si>
+    <t>sử dụng thư viện System.Data.sqlClient;
+Tài liệu hướng dẫn xem trong Document\CommandADO\Tao mot ket noi toi co so du lieu dung C#.pdf Từ trang 1-4</t>
   </si>
 </sst>
 </file>
@@ -131,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +157,15 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -170,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,9 +677,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>41335</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41335</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,8 +909,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -880,5 +927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Subjects</t>
   </si>
@@ -135,6 +135,36 @@
   <si>
     <t>sử dụng thư viện System.Data.sqlClient;
 Tài liệu hướng dẫn xem trong Document\CommandADO\Tao mot ket noi toi co so du lieu dung C#.pdf Từ trang 1-4</t>
+  </si>
+  <si>
+    <t>Tạo form đăng nhập, kiểm tra nếu thấy tên đăng nhập là admin 
+và password là admin
+ thì thông báo rằng đã
+đăng nhập thành công, ngược lại báo thât bại</t>
+  </si>
+  <si>
+    <t>Tạo form đăng nhập, kiểm tra nếu thấy tên đăng nhập là có trong cơ sở dữ liệu
+ thì thông báo rằng đã
+đăng nhập thành công, ngược lại báo thât bại</t>
+  </si>
+  <si>
+    <t>_Sử dụng cách thức để kết nối cơ sở dữ liệu
+_Sử dụng DataAdapter để bơm dữ liệu lên DataTable
+_Đếm số dòng dữ liệu trong Table, 
+nếu số dòng là 0 tức là không tồn tại trong cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>_Làm quen với sử dụng câu điều kiện if
+_Sử dụng Textbox
+_Bắt event chon button</t>
+  </si>
+  <si>
+    <t>_Làm quen với sử dụng câu điều kiện if
+_Sử dụng Textbox
+_Bắt event chon button
+_Sử dụng SqlConnection để kết nối cơ sở dữ liệu
+_Sử dụng DataAdapter để đẩy dữ liệu lên DataTable
+_Sử dụng hàm, thuộc tính của DataTable</t>
   </si>
 </sst>
 </file>
@@ -519,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +558,7 @@
     <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
     <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
@@ -706,14 +736,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6">
+        <v>41336</v>
+      </c>
+      <c r="F7" s="6">
+        <v>41336</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>41336</v>
+      </c>
+      <c r="F8" s="6">
+        <v>41338</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Subjects</t>
   </si>
@@ -165,6 +165,54 @@
 _Sử dụng SqlConnection để kết nối cơ sở dữ liệu
 _Sử dụng DataAdapter để đẩy dữ liệu lên DataTable
 _Sử dụng hàm, thuộc tính của DataTable</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -549,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,7 +746,7 @@
         <v>41334</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -740,6 +788,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
@@ -763,6 +814,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
@@ -789,47 +843,73 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -840,7 +920,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -851,7 +933,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -862,7 +946,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -873,7 +959,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -884,7 +972,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Subjects</t>
   </si>
@@ -213,6 +213,19 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>_Tạo đối tượng StreamWriter strW = new StreamWriter(@"C:\test.txt");
+_Gọi hàm của đối tượng vừa tạo strW.Write(chuỗi cần ghi viết ở đây)
+_Nhớ khai báo thư viện System.IO</t>
+  </si>
+  <si>
+    <t>Tạo một form gồm 1 nút bấm button và một textbox. 
+Khi bấm vào button thì chữ ở ô text sẽ được lưu xuống file có tên là C:\test.txt chẳng hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Làm quen với đối tượng ghi dữ liệu
+</t>
   </si>
 </sst>
 </file>
@@ -597,15 +610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
     <col min="4" max="4" width="66.875" customWidth="1"/>
     <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
@@ -690,6 +703,9 @@
       <c r="F3" s="6">
         <v>41333</v>
       </c>
+      <c r="G3" s="6">
+        <v>41333</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
@@ -716,6 +732,9 @@
       <c r="F4" s="6">
         <v>41332</v>
       </c>
+      <c r="G4" s="6">
+        <v>41332</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
@@ -745,6 +764,9 @@
       <c r="F5" s="6">
         <v>41334</v>
       </c>
+      <c r="G5" s="6">
+        <v>41336</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -839,12 +861,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41397</v>
+      </c>
+      <c r="F9" s="6">
+        <v>41338</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Subjects</t>
   </si>
@@ -226,6 +226,17 @@
   <si>
     <t xml:space="preserve">_Làm quen với đối tượng ghi dữ liệu
 </t>
+  </si>
+  <si>
+    <t>Tạo một chương trình gồm 2 ô textbox. Khi gõ chữ ở textbox
+ thứ 1 là các số 2,3,…,8 thì ở text xuất hiện các thứ ngày tương
+ứng là: thứ hai, thứ ba,thứ 4,…chủ nhật</t>
+  </si>
+  <si>
+    <t>_ Làm quen với cấu trúc switch(), break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Xem trang 25, Mục 3.5.2.2 Lệnh switch giáo trình trong Document\Tim_hieu_C_sharp__va_ung_dung.pdf </t>
   </si>
 </sst>
 </file>
@@ -611,7 +622,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -890,12 +901,33 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="6">
+        <v>41337</v>
+      </c>
+      <c r="F10" s="6">
+        <v>41339</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -143,11 +143,6 @@
 đăng nhập thành công, ngược lại báo thât bại</t>
   </si>
   <si>
-    <t>Tạo form đăng nhập, kiểm tra nếu thấy tên đăng nhập là có trong cơ sở dữ liệu
- thì thông báo rằng đã
-đăng nhập thành công, ngược lại báo thât bại</t>
-  </si>
-  <si>
     <t>_Sử dụng cách thức để kết nối cơ sở dữ liệu
 _Sử dụng DataAdapter để bơm dữ liệu lên DataTable
 _Đếm số dòng dữ liệu trong Table, 
@@ -237,6 +232,11 @@
   </si>
   <si>
     <t xml:space="preserve">_Xem trang 25, Mục 3.5.2.2 Lệnh switch giáo trình trong Document\Tim_hieu_C_sharp__va_ung_dung.pdf </t>
+  </si>
+  <si>
+    <t>Tạo form đăng nhập, kiểm tra nếu thấy tên đăng nhập và password là có trong cơ sở dữ liệu
+ thì thông báo rằng đã
+đăng nhập thành công, ngược lại báo thât bại</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,8 +807,11 @@
       <c r="F6" s="6">
         <v>41335</v>
       </c>
+      <c r="G6" s="6">
+        <v>41336</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>14</v>
@@ -822,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <v>41336</v>
@@ -848,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>41336</v>
@@ -869,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -877,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="6">
         <v>41397</v>
@@ -898,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -906,13 +909,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="E10" s="6">
         <v>41337</v>
@@ -927,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -935,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -943,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -951,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -959,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -967,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -975,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -983,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -996,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1009,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1022,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -1035,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1048,7 +1051,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -242,15 +242,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -268,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -407,7 +407,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -442,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,26 +616,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="4" width="66.875" customWidth="1"/>
-    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -669,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="60">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -698,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -727,7 +725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -756,7 +754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -788,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -820,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -840,13 +838,13 @@
         <v>41336</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="90">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -875,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -904,7 +902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -933,7 +931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -941,7 +939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -949,7 +947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -957,7 +955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -965,7 +963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -973,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -981,7 +979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -994,7 +992,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1007,7 +1005,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1020,7 +1018,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1033,7 +1031,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1046,7 +1044,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1059,7 +1057,7 @@
       <c r="H22"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1102,19 +1100,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>16</v>
       </c>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
@@ -223,11 +223,6 @@
 </t>
   </si>
   <si>
-    <t>Tạo một chương trình gồm 2 ô textbox. Khi gõ chữ ở textbox
- thứ 1 là các số 2,3,…,8 thì ở text xuất hiện các thứ ngày tương
-ứng là: thứ hai, thứ ba,thứ 4,…chủ nhật</t>
-  </si>
-  <si>
     <t>_ Làm quen với cấu trúc switch(), break</t>
   </si>
   <si>
@@ -237,20 +232,25 @@
     <t>Tạo form đăng nhập, kiểm tra nếu thấy tên đăng nhập và password là có trong cơ sở dữ liệu
  thì thông báo rằng đã
 đăng nhập thành công, ngược lại báo thât bại</t>
+  </si>
+  <si>
+    <t>Tạo một chương trình gồm 2 ô textbox. Khi gõ chữ ở textbox
+ thứ 1 là các số 2,3,…,8 thì ở textbox thứ 2 xuất hiện các thứ ngày tương
+ứng là: thứ hai, thứ ba,thứ 4,…chủ nhật</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -268,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -407,6 +407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,6 +442,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,26 +618,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
+    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -667,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60">
+    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -696,7 +698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -725,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -754,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -786,7 +788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60">
+    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -818,7 +820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75">
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -844,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90">
+    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -852,7 +854,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>39</v>
@@ -873,7 +875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="75">
+    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -902,7 +904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
+    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -910,10 +912,10 @@
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E10" s="6">
         <v>41337</v>
@@ -928,10 +930,10 @@
         <v>14</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -939,7 +941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -947,7 +949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -955,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -963,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -971,7 +973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -979,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -992,7 +994,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1005,7 +1007,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1018,7 +1020,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1031,7 +1033,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1044,7 +1046,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1057,7 +1059,7 @@
       <c r="H22"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1100,19 +1102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Subjects</t>
   </si>
@@ -237,6 +237,31 @@
     <t>Tạo một chương trình gồm 2 ô textbox. Khi gõ chữ ở textbox
  thứ 1 là các số 2,3,…,8 thì ở textbox thứ 2 xuất hiện các thứ ngày tương
 ứng là: thứ hai, thứ ba,thứ 4,…chủ nhật</t>
+  </si>
+  <si>
+    <t>Tạo một form gồm 1 nút bấm button và một textbox. 
+Khi bấm vào button thì chữ ở ô text sẽ 
+được lưu xuống file có tên do mình đặt tên và vị trí lưu 
+cũng do ta quy định chẳng hạn</t>
+  </si>
+  <si>
+    <t>_Làm quen với SaveDialog</t>
+  </si>
+  <si>
+    <t>_Kéo thả một đối tượng SaveDialog và đặt tên là saveFileDialog1
+_        Gõ lệnh sau và viết thêm cho nó
+    StreamWriter strW;
+            saveFileDialog1.Filter = "txt files (*.txt)|*.txt|All files (*.*)|*.*";
+            saveFileDialog1.FilterIndex = 2;
+            saveFileDialog1.RestoreDirectory = true;
+            if (saveFileDialog1.ShowDialog() == DialogResult.OK)
+            {
+                if ((saveFileDialog1.OpenFile()) != null)
+                {
+                    //Viet them code vao day
+                    strW.Close();
+                }
+            }</t>
   </si>
 </sst>
 </file>
@@ -621,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,6 +864,9 @@
       <c r="F7" s="6">
         <v>41336</v>
       </c>
+      <c r="G7" s="6">
+        <v>41337</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
@@ -894,8 +922,11 @@
       <c r="F9" s="6">
         <v>41338</v>
       </c>
+      <c r="G9" s="6">
+        <v>41337</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>14</v>
@@ -933,12 +964,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6">
+        <v>41337</v>
+      </c>
+      <c r="F11" s="6">
+        <v>41337</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$F$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Subjects</t>
   </si>
@@ -262,6 +262,35 @@
                     strW.Close();
                 }
             }</t>
+  </si>
+  <si>
+    <t>Assign to</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi đăng nhập nếu tài khoản
+hoặc mật khẩu trống thì thông báo tương ứng
+và forcus vào ô trống đó để người ta gõ vào</t>
+  </si>
+  <si>
+    <t>Viết code để khi click vào nút OK của form
+Aboutus nó sẽ đóng form lại</t>
+  </si>
+  <si>
+    <t>Sử dụng thuộc tính Dock của một form để
+dãn các tab lấp kín form, khi phóng to không
+bị sai lệnh vị trí tab</t>
   </si>
 </sst>
 </file>
@@ -319,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +372,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,25 +676,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="4" width="66.875" customWidth="1"/>
-    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.75" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="66.875" customWidth="1"/>
+    <col min="6" max="8" width="15.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -673,28 +706,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -704,8 +740,8 @@
       <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6">
-        <v>41330</v>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F2" s="6">
         <v>41330</v>
@@ -713,17 +749,20 @@
       <c r="G2" s="6">
         <v>41330</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6">
+        <v>41330</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -733,26 +772,29 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6">
         <v>41330</v>
-      </c>
-      <c r="F3" s="6">
-        <v>41333</v>
       </c>
       <c r="G3" s="6">
         <v>41333</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6">
+        <v>41333</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -762,26 +804,29 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6">
         <v>41331</v>
-      </c>
-      <c r="F4" s="6">
-        <v>41332</v>
       </c>
       <c r="G4" s="6">
         <v>41332</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6">
+        <v>41332</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -791,29 +836,32 @@
       <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>41331</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>41334</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>41336</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -823,29 +871,32 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="6">
-        <v>41335</v>
       </c>
       <c r="F6" s="6">
         <v>41335</v>
       </c>
       <c r="G6" s="6">
+        <v>41335</v>
+      </c>
+      <c r="H6" s="6">
         <v>41336</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -855,26 +906,29 @@
       <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="6">
-        <v>41336</v>
       </c>
       <c r="F7" s="6">
         <v>41336</v>
       </c>
       <c r="G7" s="6">
+        <v>41336</v>
+      </c>
+      <c r="H7" s="6">
         <v>41337</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -884,26 +938,29 @@
       <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>41336</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>41338</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -913,29 +970,32 @@
       <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>41397</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>41338</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>41337</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -945,26 +1005,29 @@
       <c r="C10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>41337</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>41339</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -974,47 +1037,104 @@
       <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="6">
-        <v>41337</v>
       </c>
       <c r="F11" s="6">
         <v>41337</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="6">
+        <v>41337</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6">
+        <v>41339</v>
+      </c>
+      <c r="G12" s="6">
+        <v>41339</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6">
+        <v>41339</v>
+      </c>
+      <c r="G13" s="6">
+        <v>41339</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="6">
+        <v>41339</v>
+      </c>
+      <c r="G14" s="6">
+        <v>41339</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1022,7 +1142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1030,99 +1150,99 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
+      <c r="J23"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I23"/>
+  <autoFilter ref="F1:J23"/>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:H11 F12:G12 F13:H1048576">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>
@@ -1131,18 +1251,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Reference!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1152,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,39 +1289,51 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>Subjects</t>
   </si>
@@ -291,6 +291,9 @@
     <t>Sử dụng thuộc tính Dock của một form để
 dãn các tab lấp kín form, khi phóng to không
 bị sai lệnh vị trí tab</t>
+  </si>
+  <si>
+    <t>Đặt tab cho frmLogin</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1140,6 +1143,24 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="6">
+        <v>41339</v>
+      </c>
+      <c r="G15" s="6">
+        <v>41339</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Subjects</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Đặt tab cho frmLogin</t>
+  </si>
+  <si>
+    <t>Show main form after login is true</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1172,12 @@
       </c>
       <c r="B16" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$F$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>Subjects</t>
   </si>
@@ -106,13 +106,6 @@
 , text chuyển từ ô gõ dưới đưa lên ô text trên</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Làm quen cách sử dụng 
-hàm của đối tượng xâu hay còn gọi chuỗi hay text</t>
-  </si>
-  <si>
     <t>Tài liệu hướng dẫn các hàm xem trong mục
 Document tại chương 10 trang 75, project minh họa để trong Exercises\ToLower</t>
   </si>
@@ -128,9 +121,6 @@
   </si>
   <si>
     <t>Kết nối cơ sở dữ liệu từ C#.Net sang sql sever</t>
-  </si>
-  <si>
-    <t>Làm quen với ADO.Net</t>
   </si>
   <si>
     <t>sử dụng thư viện System.Data.sqlClient;
@@ -149,19 +139,6 @@
 nếu số dòng là 0 tức là không tồn tại trong cơ sở dữ liệu</t>
   </si>
   <si>
-    <t>_Làm quen với sử dụng câu điều kiện if
-_Sử dụng Textbox
-_Bắt event chon button</t>
-  </si>
-  <si>
-    <t>_Làm quen với sử dụng câu điều kiện if
-_Sử dụng Textbox
-_Bắt event chon button
-_Sử dụng SqlConnection để kết nối cơ sở dữ liệu
-_Sử dụng DataAdapter để đẩy dữ liệu lên DataTable
-_Sử dụng hàm, thuộc tính của DataTable</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -217,13 +194,6 @@
   <si>
     <t>Tạo một form gồm 1 nút bấm button và một textbox. 
 Khi bấm vào button thì chữ ở ô text sẽ được lưu xuống file có tên là C:\test.txt chẳng hạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Làm quen với đối tượng ghi dữ liệu
-</t>
-  </si>
-  <si>
-    <t>_ Làm quen với cấu trúc switch(), break</t>
   </si>
   <si>
     <t xml:space="preserve">_Xem trang 25, Mục 3.5.2.2 Lệnh switch giáo trình trong Document\Tim_hieu_C_sharp__va_ung_dung.pdf </t>
@@ -243,9 +213,6 @@
 Khi bấm vào button thì chữ ở ô text sẽ 
 được lưu xuống file có tên do mình đặt tên và vị trí lưu 
 cũng do ta quy định chẳng hạn</t>
-  </si>
-  <si>
-    <t>_Làm quen với SaveDialog</t>
   </si>
   <si>
     <t>_Kéo thả một đối tượng SaveDialog và đặt tên là saveFileDialog1
@@ -297,6 +264,9 @@
   </si>
   <si>
     <t>Show main form after login is true</t>
+  </si>
+  <si>
+    <t>Tạo một bản demo, gồm 1 dataGridview,1 button. Khi bấm vào nút OK nó sẽ load dữ liệu từ 1 bảng bất kỳ do mình tạo trong cơ sở dữ liệu lên dataGridView</t>
   </si>
 </sst>
 </file>
@@ -354,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,14 +665,13 @@
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="66.875" customWidth="1"/>
-    <col min="6" max="8" width="15.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="42.75" customWidth="1"/>
+    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -712,31 +682,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -747,7 +714,10 @@
         <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E2" s="6">
+        <v>41330</v>
       </c>
       <c r="F2" s="6">
         <v>41330</v>
@@ -755,20 +725,17 @@
       <c r="G2" s="6">
         <v>41330</v>
       </c>
-      <c r="H2" s="6">
-        <v>41330</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -779,28 +746,28 @@
         <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E3" s="6">
+        <v>41330</v>
       </c>
       <c r="F3" s="6">
-        <v>41330</v>
+        <v>41333</v>
       </c>
       <c r="G3" s="6">
         <v>41333</v>
       </c>
-      <c r="H3" s="6">
-        <v>41333</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -808,31 +775,31 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E4" s="6">
+        <v>41331</v>
       </c>
       <c r="F4" s="6">
-        <v>41331</v>
+        <v>41332</v>
       </c>
       <c r="G4" s="6">
         <v>41332</v>
       </c>
-      <c r="H4" s="6">
-        <v>41332</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -840,214 +807,199 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="E5" s="6">
+        <v>41331</v>
       </c>
       <c r="F5" s="6">
-        <v>41331</v>
+        <v>41334</v>
       </c>
       <c r="G5" s="6">
-        <v>41334</v>
-      </c>
-      <c r="H5" s="6">
         <v>41336</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="E6" s="6">
+        <v>41335</v>
       </c>
       <c r="F6" s="6">
         <v>41335</v>
       </c>
       <c r="G6" s="6">
-        <v>41335</v>
-      </c>
-      <c r="H6" s="6">
         <v>41336</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="E7" s="6">
+        <v>41336</v>
       </c>
       <c r="F7" s="6">
         <v>41336</v>
       </c>
       <c r="G7" s="6">
-        <v>41336</v>
-      </c>
-      <c r="H7" s="6">
         <v>41337</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="6">
+        <v>41336</v>
       </c>
       <c r="F8" s="6">
-        <v>41336</v>
-      </c>
-      <c r="G8" s="6">
         <v>41338</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41397</v>
       </c>
       <c r="F9" s="6">
-        <v>41397</v>
+        <v>41338</v>
       </c>
       <c r="G9" s="6">
-        <v>41338</v>
-      </c>
-      <c r="H9" s="6">
         <v>41337</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
+      <c r="E10" s="6">
+        <v>41337</v>
       </c>
       <c r="F10" s="6">
-        <v>41337</v>
+        <v>41339</v>
       </c>
       <c r="G10" s="6">
         <v>41339</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="E11" s="6">
+        <v>41337</v>
       </c>
       <c r="F11" s="6">
         <v>41337</v>
@@ -1055,25 +1007,28 @@
       <c r="G11" s="6">
         <v>41337</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E12" s="6">
+        <v>41339</v>
       </c>
       <c r="F12" s="6">
         <v>41339</v>
@@ -1081,25 +1036,28 @@
       <c r="G12" s="6">
         <v>41339</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E13" s="6">
+        <v>41339</v>
       </c>
       <c r="F13" s="6">
         <v>41339</v>
@@ -1107,172 +1065,198 @@
       <c r="G13" s="6">
         <v>41339</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E14" s="6">
+        <v>41339</v>
       </c>
       <c r="F14" s="6">
         <v>41339</v>
       </c>
-      <c r="G14" s="6">
-        <v>41339</v>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="6">
+        <v>41339</v>
       </c>
       <c r="F15" s="6">
         <v>41339</v>
       </c>
-      <c r="G15" s="6">
-        <v>41339</v>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6">
+        <v>41340</v>
+      </c>
+      <c r="F16" s="6">
+        <v>41340</v>
+      </c>
+      <c r="G16" s="6">
+        <v>41340</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10">
+        <v>41340</v>
+      </c>
+      <c r="F17" s="10">
+        <v>41340</v>
+      </c>
       <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23"/>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J23"/>
+  <autoFilter ref="E1:I23"/>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:H11 F12:G12 F13:H1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>
@@ -1286,13 +1270,13 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1327,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Subjects</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Tạo một bản demo, gồm 1 dataGridview,1 button. Khi bấm vào nút OK nó sẽ load dữ liệu từ 1 bảng bất kỳ do mình tạo trong cơ sở dữ liệu lên dataGridView</t>
+  </si>
+  <si>
+    <t>Làm bài tập về hàm</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,7 +915,7 @@
         <v>41338</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>14</v>
@@ -1092,7 +1095,7 @@
         <v>41339</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>15</v>
@@ -1118,7 +1121,7 @@
         <v>41339</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>15</v>
@@ -1147,7 +1150,7 @@
         <v>41340</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -1169,9 +1172,11 @@
       <c r="F17" s="10">
         <v>41340</v>
       </c>
-      <c r="G17"/>
+      <c r="G17" s="10">
+        <v>41340</v>
+      </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1184,11 +1189,25 @@
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10">
+        <v>41342</v>
+      </c>
+      <c r="F18" s="10">
+        <v>41358</v>
+      </c>
       <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -1197,7 +1216,6 @@
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
@@ -1256,7 +1274,7 @@
   </sheetData>
   <autoFilter ref="E1:I23"/>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576 E1:E18 E20:E1048576">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="2" r:id="rId2"/>
+    <sheet name="Thời khóa biểu" sheetId="3" r:id="rId2"/>
+    <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Subjects</t>
   </si>
@@ -271,6 +272,21 @@
   <si>
     <t>Làm bài tập về hàm</t>
   </si>
+  <si>
+    <t>Thứ</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>C#/SQL</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +322,15 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +380,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1310,6 +1339,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
@@ -1341,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>

--- a/Plan/Project Plan.xlsx
+++ b/Plan/Project Plan.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$E$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$D$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>Subjects</t>
   </si>
@@ -27,9 +27,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -70,15 +67,6 @@
   </si>
   <si>
     <t>Review</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Not Defined</t>
@@ -97,9 +85,6 @@
 để hiển thị kết quả</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sử dụng phần mềm InnoSetup </t>
   </si>
   <si>
@@ -116,9 +101,6 @@
   </si>
   <si>
     <t>Tạo chương trình Winform như trong thư mục Exercises</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>Kết nối cơ sở dữ liệu từ C#.Net sang sql sever</t>
@@ -138,54 +120,6 @@
 _Sử dụng DataAdapter để bơm dữ liệu lên DataTable
 _Đếm số dòng dữ liệu trong Table, 
 nếu số dòng là 0 tức là không tồn tại trong cơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>_Tạo đối tượng StreamWriter strW = new StreamWriter(@"C:\test.txt");
@@ -286,6 +220,9 @@
   </si>
   <si>
     <t>C#/SQL</t>
+  </si>
+  <si>
+    <t>Viết hàm truy vấn cơ sở dữ liệu, đầu vào là chuỗi cần thực hiện truy vấn, đầu ra là số dòng bị tác động trong cơ sở dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -352,16 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,625 +616,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
+    <col min="4" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>41330</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41330</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41330</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41330</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41333</v>
+      </c>
+      <c r="F3" s="4">
+        <v>41333</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41331</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41332</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41332</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41331</v>
+      </c>
+      <c r="E5" s="4">
+        <v>41334</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41336</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41335</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41335</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41336</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41336</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41336</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41337</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41336</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41338</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41397</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41338</v>
+      </c>
+      <c r="F9" s="4">
+        <v>41337</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41337</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41339</v>
+      </c>
+      <c r="F10" s="4">
+        <v>41339</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>41337</v>
+      </c>
+      <c r="E11" s="4">
+        <v>41337</v>
+      </c>
+      <c r="F11" s="4">
+        <v>41337</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41339</v>
+      </c>
+      <c r="F12" s="4">
+        <v>41339</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>41339</v>
+      </c>
+      <c r="F13" s="4">
+        <v>41339</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4">
+        <v>41339</v>
+      </c>
+      <c r="E14" s="4">
+        <v>41339</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4">
+        <v>41339</v>
+      </c>
+      <c r="E15" s="4">
+        <v>41339</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4">
+        <v>41340</v>
+      </c>
+      <c r="E16" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F16" s="4">
+        <v>41340</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8">
+        <v>41340</v>
+      </c>
+      <c r="E17" s="8">
+        <v>41340</v>
+      </c>
+      <c r="F17" s="8">
+        <v>41340</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8">
+        <v>41342</v>
+      </c>
+      <c r="E18" s="8">
+        <v>41358</v>
+      </c>
+      <c r="F18" s="8">
+        <v>41358</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="6">
-        <v>41330</v>
-      </c>
-      <c r="F2" s="6">
-        <v>41330</v>
-      </c>
-      <c r="G2" s="6">
-        <v>41330</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="6">
-        <v>41330</v>
-      </c>
-      <c r="F3" s="6">
-        <v>41333</v>
-      </c>
-      <c r="G3" s="6">
-        <v>41333</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41331</v>
-      </c>
-      <c r="F4" s="6">
-        <v>41332</v>
-      </c>
-      <c r="G4" s="6">
-        <v>41332</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="6">
-        <v>41331</v>
-      </c>
-      <c r="F5" s="6">
-        <v>41334</v>
-      </c>
-      <c r="G5" s="6">
-        <v>41336</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="6">
-        <v>41335</v>
-      </c>
-      <c r="F6" s="6">
-        <v>41335</v>
-      </c>
-      <c r="G6" s="6">
-        <v>41336</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="6">
-        <v>41336</v>
-      </c>
-      <c r="F7" s="6">
-        <v>41336</v>
-      </c>
-      <c r="G7" s="6">
-        <v>41337</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="6">
-        <v>41336</v>
-      </c>
-      <c r="F8" s="6">
-        <v>41338</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="6">
-        <v>41397</v>
-      </c>
-      <c r="F9" s="6">
-        <v>41338</v>
-      </c>
-      <c r="G9" s="6">
-        <v>41337</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6">
-        <v>41337</v>
-      </c>
-      <c r="F10" s="6">
-        <v>41339</v>
-      </c>
-      <c r="G10" s="6">
-        <v>41339</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="6">
-        <v>41337</v>
-      </c>
-      <c r="F11" s="6">
-        <v>41337</v>
-      </c>
-      <c r="G11" s="6">
-        <v>41337</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6">
-        <v>41339</v>
-      </c>
-      <c r="F12" s="6">
-        <v>41339</v>
-      </c>
-      <c r="G12" s="6">
-        <v>41339</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="6">
-        <v>41339</v>
-      </c>
-      <c r="F13" s="6">
-        <v>41339</v>
-      </c>
-      <c r="G13" s="6">
-        <v>41339</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6">
-        <v>41339</v>
-      </c>
-      <c r="F14" s="6">
-        <v>41339</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6">
-        <v>41339</v>
-      </c>
-      <c r="F15" s="6">
-        <v>41339</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="6">
-        <v>41340</v>
-      </c>
-      <c r="F16" s="6">
-        <v>41340</v>
-      </c>
-      <c r="G16" s="6">
-        <v>41340</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="10">
-        <v>41340</v>
-      </c>
-      <c r="F17" s="10">
-        <v>41340</v>
-      </c>
-      <c r="G17" s="10">
-        <v>41340</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10">
-        <v>41342</v>
-      </c>
-      <c r="F18" s="10">
-        <v>41358</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23"/>
+      <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
-    </row>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="E1:I23"/>
+  <autoFilter ref="D1:H23"/>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576 E1:E18 E20:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D1:D18 E1:F1048576">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>
@@ -1317,19 +1286,19 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1347,72 +1316,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
+      <c r="A8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1436,62 +1405,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
